--- a/scraping/combined_data.xlsx
+++ b/scraping/combined_data.xlsx
@@ -231,23 +231,23 @@
   </si>
   <si>
     <t xml:space="preserve">
-43.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-45.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-42.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-53.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-41.86</t>
+43.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+46.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+43.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+54.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+43.37</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -289,22 +289,22 @@
     <t>Infosys</t>
   </si>
   <si>
-    <t>43.20%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>21.70%</t>
-  </si>
-  <si>
-    <t>16.75%</t>
-  </si>
-  <si>
-    <t>19.51%</t>
-  </si>
-  <si>
-    <t>20.50%</t>
+    <t>43.46%</t>
+  </si>
+  <si>
+    <t>26.36%</t>
+  </si>
+  <si>
+    <t>21.87%</t>
+  </si>
+  <si>
+    <t>16.91%</t>
+  </si>
+  <si>
+    <t>19.58%</t>
+  </si>
+  <si>
+    <t>20.54%</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -564,39 +564,39 @@
   </si>
   <si>
     <t xml:space="preserve">
-18.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-28.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-17.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-42.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-26.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-87.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-17.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-7.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-23.82</t>
+18.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+28.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+18.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+43.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+25.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+89.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+17.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+23.83</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -604,59 +604,59 @@
   </si>
   <si>
     <t xml:space="preserve">
-51.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-38.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-30.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-238.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-41.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-28.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-59.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-44.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-79.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-25.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-21.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-14.15</t>
+51.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+39.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+31.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+240.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+40.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+28.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+59.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+44.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+80.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+26.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+21.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+14.19</t>
   </si>
   <si>
     <t xml:space="preserve">

--- a/scraping/combined_data.xlsx
+++ b/scraping/combined_data.xlsx
@@ -564,11 +564,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-18.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-28.18</t>
+18.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+28.14</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -576,27 +576,27 @@
   </si>
   <si>
     <t xml:space="preserve">
-43.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-25.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-89.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-17.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-7.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-23.83</t>
+43.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+25.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+89.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+17.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+23.77</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -604,15 +604,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-51.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-39.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-31.86</t>
+51.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+39.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+31.88</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -620,7 +620,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-40.96</t>
+40.92</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -632,31 +632,31 @@
   </si>
   <si>
     <t xml:space="preserve">
-59.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-44.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-80.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-26.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-21.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-14.19</t>
+59.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+44.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+80.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+26.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+21.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+14.22</t>
   </si>
   <si>
     <t xml:space="preserve">

--- a/scraping/combined_data.xlsx
+++ b/scraping/combined_data.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\scraping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50013AE4-2986-4404-9065-101C0074973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Icici Prudential Value Discover" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -239,15 +246,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-43.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-54.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-43.37</t>
+43.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+55.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+43.54</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -584,7 +591,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-89.11</t>
+88.96</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -592,7 +599,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-7.90</t>
+7.89</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -620,7 +627,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-40.92</t>
+40.91</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -632,7 +639,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-59.61</t>
+59.57</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -644,7 +651,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-4.45</t>
+4.44</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -652,7 +659,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-21.55</t>
+21.58</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -745,8 +752,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,13 +816,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -853,7 +868,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -887,6 +902,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -921,9 +937,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1096,14 +1113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1325,7 +1342,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -1384,7 +1401,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1508,7 +1525,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -1572,7 +1589,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1604,7 +1621,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1668,7 +1685,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -1697,7 +1714,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1758,7 +1775,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1787,7 +1804,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>93</v>
       </c>
@@ -1813,7 +1830,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1836,7 +1853,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1859,7 +1876,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1882,7 +1899,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>99</v>
       </c>
@@ -1902,7 +1919,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1925,7 +1942,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1948,7 +1965,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1971,7 +1988,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="S24" t="s">
         <v>93</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2014,7 +2031,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="S26" t="s">
         <v>95</v>
       </c>
@@ -2037,4 +2054,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B08BE07-1D53-490D-BD45-EC088364EB80}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>